--- a/weather_to_excel/AustralianWeatherToday.xlsx
+++ b/weather_to_excel/AustralianWeatherToday.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>21.8°C</t>
+          <t>24.4°C</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21.4°C</t>
+          <t>35.5°C</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21.3°C</t>
+          <t>29.9°C</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17.0°C</t>
+          <t>26.9°C</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13.6°C</t>
+          <t>14.2°C</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18.6°C</t>
+          <t>13.7°C</t>
         </is>
       </c>
     </row>
